--- a/PTH_1/pk_result(merged).xlsx
+++ b/PTH_1/pk_result(merged).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\WJ_Python\QM_Develop_Machinelearning\PTH_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E077FF-23C4-4CC8-AD0A-952425DDE706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9350FEA8-B4A6-4BBC-B681-13C97E19A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{84E7E45D-81D6-4069-A5DD-F506A776AE9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84E7E45D-81D6-4069-A5DD-F506A776AE9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="34">
   <si>
     <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,12 +139,40 @@
     <t>SGH(Elbow)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>BSK(Shoulder2)</t>
+  </si>
+  <si>
+    <t>BSK(Shoulder2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSO(Wrist2)</t>
+  </si>
+  <si>
+    <t>CSO(Wrist2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KJY(Shoulder2)</t>
+  </si>
+  <si>
+    <t>KJY(Shoulder2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGH(Wrist2)</t>
+  </si>
+  <si>
+    <t>SGH(Wrist2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +188,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,12 +203,74 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="hair">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -183,11 +279,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -502,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC582879-DFB4-45BA-A5F2-47E306CFE514}">
-  <dimension ref="A1:S221"/>
+  <dimension ref="A1:W267"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:S7"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="N148" sqref="N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -995,6 +1103,9 @@
       <c r="E13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+      <c r="J13" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1008,6 +1119,9 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
+      <c r="J14" s="3">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1021,6 +1135,9 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="J15" s="3">
+        <v>152</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1034,8 +1151,11 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45</v>
       </c>
@@ -1047,8 +1167,11 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>60</v>
       </c>
@@ -1060,8 +1183,11 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>120</v>
       </c>
@@ -1073,8 +1199,11 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>180</v>
       </c>
@@ -1086,8 +1215,11 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>240</v>
       </c>
@@ -1099,8 +1231,11 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1112,8 +1247,11 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -1126,7 +1264,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -1139,7 +1277,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>15</v>
       </c>
@@ -1152,7 +1290,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>30</v>
       </c>
@@ -1165,7 +1303,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45</v>
       </c>
@@ -1178,7 +1316,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>60</v>
       </c>
@@ -1191,7 +1329,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>120</v>
       </c>
@@ -1204,7 +1342,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>180</v>
       </c>
@@ -1217,7 +1355,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>240</v>
       </c>
@@ -1230,7 +1368,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -3431,7 +3569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>120</v>
       </c>
@@ -3442,7 +3580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>180</v>
       </c>
@@ -3453,7 +3591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>240</v>
       </c>
@@ -3464,7 +3602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -3475,7 +3613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>5</v>
       </c>
@@ -3486,7 +3624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>10</v>
       </c>
@@ -3497,7 +3635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>15</v>
       </c>
@@ -3508,7 +3646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>30</v>
       </c>
@@ -3519,7 +3657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45</v>
       </c>
@@ -3530,7 +3668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>60</v>
       </c>
@@ -3541,7 +3679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>120</v>
       </c>
@@ -3552,7 +3690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>180</v>
       </c>
@@ -3563,7 +3701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>240</v>
       </c>
@@ -3573,6 +3711,572 @@
       <c r="C221" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>0</v>
+      </c>
+      <c r="B222" s="2">
+        <v>31</v>
+      </c>
+      <c r="C222" t="s">
+        <v>27</v>
+      </c>
+      <c r="F222" s="2"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>5</v>
+      </c>
+      <c r="B223" s="3">
+        <v>140</v>
+      </c>
+      <c r="C223" t="s">
+        <v>27</v>
+      </c>
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>10</v>
+      </c>
+      <c r="B224" s="3">
+        <v>152</v>
+      </c>
+      <c r="C224" t="s">
+        <v>26</v>
+      </c>
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>15</v>
+      </c>
+      <c r="B225" s="3">
+        <v>120</v>
+      </c>
+      <c r="C225" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>30</v>
+      </c>
+      <c r="B226" s="3">
+        <v>144</v>
+      </c>
+      <c r="C226" t="s">
+        <v>26</v>
+      </c>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45</v>
+      </c>
+      <c r="B227" s="3">
+        <v>81</v>
+      </c>
+      <c r="C227" t="s">
+        <v>26</v>
+      </c>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>60</v>
+      </c>
+      <c r="B228" s="3">
+        <v>73</v>
+      </c>
+      <c r="C228" t="s">
+        <v>26</v>
+      </c>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>120</v>
+      </c>
+      <c r="B229" s="3">
+        <v>77</v>
+      </c>
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>180</v>
+      </c>
+      <c r="B230" s="3">
+        <v>44</v>
+      </c>
+      <c r="C230" t="s">
+        <v>26</v>
+      </c>
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>240</v>
+      </c>
+      <c r="B231" s="3">
+        <v>26</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>0</v>
+      </c>
+      <c r="B232" s="2">
+        <v>15</v>
+      </c>
+      <c r="C232" t="s">
+        <v>29</v>
+      </c>
+      <c r="F232" s="3"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="3"/>
+      <c r="S232" s="3"/>
+      <c r="T232" s="3"/>
+      <c r="U232" s="3"/>
+      <c r="V232" s="3"/>
+      <c r="W232" s="3"/>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>5</v>
+      </c>
+      <c r="B233" s="3">
+        <v>3237</v>
+      </c>
+      <c r="C233" t="s">
+        <v>29</v>
+      </c>
+      <c r="F233" s="5"/>
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>10</v>
+      </c>
+      <c r="B234" s="3">
+        <v>3370</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="J234" s="3"/>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>15</v>
+      </c>
+      <c r="B235" s="3">
+        <v>5824</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="J235" s="3"/>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>30</v>
+      </c>
+      <c r="B236" s="3">
+        <v>2477</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="I236" s="2"/>
+      <c r="J236" s="3"/>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>35</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1344</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>40</v>
+      </c>
+      <c r="B238" s="3">
+        <v>2142</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45</v>
+      </c>
+      <c r="B239" s="3">
+        <v>2345</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>60</v>
+      </c>
+      <c r="B240" s="3">
+        <v>173</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>75</v>
+      </c>
+      <c r="B241" s="3">
+        <v>583</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>90</v>
+      </c>
+      <c r="B242" s="3">
+        <v>516</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>120</v>
+      </c>
+      <c r="B243" s="3">
+        <v>348</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>180</v>
+      </c>
+      <c r="B244" s="3">
+        <v>302</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>240</v>
+      </c>
+      <c r="B245" s="3">
+        <v>38</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>0</v>
+      </c>
+      <c r="B246" s="2">
+        <v>29</v>
+      </c>
+      <c r="C246" t="s">
+        <v>31</v>
+      </c>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>5</v>
+      </c>
+      <c r="B247" s="3">
+        <v>106</v>
+      </c>
+      <c r="C247" t="s">
+        <v>31</v>
+      </c>
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>10</v>
+      </c>
+      <c r="B248" s="3">
+        <v>134</v>
+      </c>
+      <c r="C248" t="s">
+        <v>30</v>
+      </c>
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>15</v>
+      </c>
+      <c r="B249" s="3">
+        <v>102</v>
+      </c>
+      <c r="C249" t="s">
+        <v>30</v>
+      </c>
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>30</v>
+      </c>
+      <c r="B250" s="3">
+        <v>82</v>
+      </c>
+      <c r="C250" t="s">
+        <v>30</v>
+      </c>
+      <c r="I250" s="3"/>
+      <c r="L250" s="2"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45</v>
+      </c>
+      <c r="B251" s="3">
+        <v>50</v>
+      </c>
+      <c r="C251" t="s">
+        <v>30</v>
+      </c>
+      <c r="I251" s="3"/>
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>60</v>
+      </c>
+      <c r="B252" s="3">
+        <v>51</v>
+      </c>
+      <c r="C252" t="s">
+        <v>30</v>
+      </c>
+      <c r="L252" s="3"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>120</v>
+      </c>
+      <c r="B253" s="3">
+        <v>33</v>
+      </c>
+      <c r="C253" t="s">
+        <v>30</v>
+      </c>
+      <c r="L253" s="3"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>180</v>
+      </c>
+      <c r="B254" s="3">
+        <v>25</v>
+      </c>
+      <c r="C254" t="s">
+        <v>30</v>
+      </c>
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>240</v>
+      </c>
+      <c r="B255" s="3">
+        <v>27</v>
+      </c>
+      <c r="C255" t="s">
+        <v>30</v>
+      </c>
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>0</v>
+      </c>
+      <c r="B256" s="2">
+        <v>16</v>
+      </c>
+      <c r="C256" t="s">
+        <v>33</v>
+      </c>
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>5</v>
+      </c>
+      <c r="B257" s="3">
+        <v>10395</v>
+      </c>
+      <c r="C257" t="s">
+        <v>33</v>
+      </c>
+      <c r="I257" s="2"/>
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>10</v>
+      </c>
+      <c r="B258" s="3">
+        <v>8721</v>
+      </c>
+      <c r="C258" t="s">
+        <v>32</v>
+      </c>
+      <c r="I258" s="3"/>
+      <c r="L258" s="3"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>15</v>
+      </c>
+      <c r="B259" s="3">
+        <v>2073</v>
+      </c>
+      <c r="C259" t="s">
+        <v>32</v>
+      </c>
+      <c r="I259" s="3"/>
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>30</v>
+      </c>
+      <c r="B260" s="3">
+        <v>4275</v>
+      </c>
+      <c r="C260" t="s">
+        <v>32</v>
+      </c>
+      <c r="I260" s="3"/>
+      <c r="L260" s="4"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45</v>
+      </c>
+      <c r="B261" s="3">
+        <v>3262</v>
+      </c>
+      <c r="C261" t="s">
+        <v>32</v>
+      </c>
+      <c r="I261" s="3"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>60</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1251</v>
+      </c>
+      <c r="C262" t="s">
+        <v>32</v>
+      </c>
+      <c r="I262" s="3"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>120</v>
+      </c>
+      <c r="B263" s="3">
+        <v>812</v>
+      </c>
+      <c r="C263" t="s">
+        <v>32</v>
+      </c>
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>180</v>
+      </c>
+      <c r="B264" s="3">
+        <v>684</v>
+      </c>
+      <c r="C264" t="s">
+        <v>32</v>
+      </c>
+      <c r="I264" s="3"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>240</v>
+      </c>
+      <c r="B265" s="3">
+        <v>800</v>
+      </c>
+      <c r="C265" t="s">
+        <v>32</v>
+      </c>
+      <c r="I265" s="3"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I267" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3723,7 +4427,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:L22"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4982,7 +5686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AA26A1-88F7-4DAC-9A5E-45AF736A0380}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
